--- a/xlsx/nfeature: 1024, hamming_tolerance: 64, k_knn: 7.xlsx
+++ b/xlsx/nfeature: 1024, hamming_tolerance: 64, k_knn: 7.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,13 +428,13 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.745</v>
+        <v>0.576</v>
       </c>
       <c r="C1" t="n">
         <v>0.002</v>
       </c>
       <c r="D1" t="n">
-        <v>0.987</v>
+        <v>0.981</v>
       </c>
       <c r="E1" t="n">
         <v>0.429</v>
@@ -457,25 +457,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.088</v>
+        <v>0.883</v>
       </c>
       <c r="C2" t="n">
         <v>0.003</v>
       </c>
       <c r="D2" t="n">
-        <v>0.996</v>
+        <v>0.993</v>
       </c>
       <c r="E2" t="n">
-        <v>0.429</v>
+        <v>0.571</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Akhlak Kamiswara</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.063</v>
+        <v>0.859</v>
       </c>
       <c r="C3" t="n">
         <v>0.003</v>
@@ -515,25 +515,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.713</v>
+        <v>0.536</v>
       </c>
       <c r="C4" t="n">
         <v>0.002</v>
       </c>
       <c r="D4" t="n">
-        <v>0.983</v>
+        <v>0.986</v>
       </c>
       <c r="E4" t="n">
-        <v>0.714</v>
+        <v>0.571</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Akhlak Kamiswara</t>
+          <t>Muhammad Iqbal Baqi</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.702</v>
+        <v>0.539</v>
       </c>
       <c r="C5" t="n">
         <v>0.002</v>
       </c>
       <c r="D5" t="n">
-        <v>0.99</v>
+        <v>0.992</v>
       </c>
       <c r="E5" t="n">
-        <v>0.714</v>
+        <v>0.571</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -573,25 +573,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.028</v>
+        <v>1.601</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D6" t="n">
-        <v>0.973</v>
+        <v>0.979</v>
       </c>
       <c r="E6" t="n">
-        <v>0.429</v>
+        <v>0.857</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Muhammad Iqbal Baqi</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -602,20 +602,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.48</v>
+        <v>1.165</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D7" t="n">
-        <v>0.972</v>
+        <v>0.982</v>
       </c>
       <c r="E7" t="n">
-        <v>0.571</v>
+        <v>0.429</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -631,10 +631,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.014</v>
+        <v>1.706</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.514</v>
+        <v>1.163</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D9" t="n">
-        <v>0.99</v>
+        <v>0.989</v>
       </c>
       <c r="E9" t="n">
-        <v>0.571</v>
+        <v>0.857</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -689,25 +689,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.963</v>
+        <v>1.49</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D10" t="n">
-        <v>0.978</v>
+        <v>0.988</v>
       </c>
       <c r="E10" t="n">
-        <v>0.571</v>
+        <v>0.429</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Muhammad Iqbal Baqi</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.011</v>
+        <v>0.872</v>
       </c>
       <c r="C11" t="n">
         <v>0.003</v>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.359</v>
+        <v>1.1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D12" t="n">
         <v>0.995</v>
       </c>
       <c r="E12" t="n">
-        <v>0.714</v>
+        <v>0.857</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -776,16 +776,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.057</v>
+        <v>0.909</v>
       </c>
       <c r="C13" t="n">
         <v>0.003</v>
       </c>
       <c r="D13" t="n">
-        <v>0.98</v>
+        <v>0.979</v>
       </c>
       <c r="E13" t="n">
-        <v>0.571</v>
+        <v>0.714</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.189</v>
+        <v>0.988</v>
       </c>
       <c r="C14" t="n">
         <v>0.003</v>
       </c>
       <c r="D14" t="n">
-        <v>0.961</v>
+        <v>0.966</v>
       </c>
       <c r="E14" t="n">
-        <v>0.571</v>
+        <v>0.429</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Toni Ismail</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.167</v>
+        <v>0.957</v>
       </c>
       <c r="C15" t="n">
         <v>0.003</v>
@@ -843,7 +843,7 @@
         <v>0.994</v>
       </c>
       <c r="E15" t="n">
-        <v>0.286</v>
+        <v>0.429</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.963</v>
+        <v>0.758</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D16" t="n">
         <v>0.994</v>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.963</v>
+        <v>0.737</v>
       </c>
       <c r="C17" t="n">
         <v>0.002</v>
@@ -921,25 +921,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.304</v>
+        <v>1.043</v>
       </c>
       <c r="C18" t="n">
         <v>0.003</v>
       </c>
       <c r="D18" t="n">
-        <v>0.99</v>
+        <v>0.996</v>
       </c>
       <c r="E18" t="n">
-        <v>0.429</v>
+        <v>0.571</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Toni Ismail</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -950,25 +950,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.873</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="C19" t="n">
         <v>0.002</v>
       </c>
       <c r="D19" t="n">
-        <v>0.979</v>
+        <v>0.984</v>
       </c>
       <c r="E19" t="n">
-        <v>0.571</v>
+        <v>0.429</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ridha Ayu Salsabila</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
@@ -979,16 +979,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.28</v>
+        <v>1.031</v>
       </c>
       <c r="C20" t="n">
         <v>0.003</v>
       </c>
       <c r="D20" t="n">
-        <v>0.983</v>
+        <v>0.973</v>
       </c>
       <c r="E20" t="n">
-        <v>0.571</v>
+        <v>0.857</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1008,20 +1008,20 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.78</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="C21" t="n">
         <v>0.002</v>
       </c>
       <c r="D21" t="n">
-        <v>0.972</v>
+        <v>0.987</v>
       </c>
       <c r="E21" t="n">
-        <v>0.429</v>
+        <v>0.571</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Muhammad Iqbal Baqi</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.452</v>
+        <v>1.253</v>
       </c>
       <c r="C22" t="n">
         <v>0.004</v>
       </c>
       <c r="D22" t="n">
-        <v>0.984</v>
+        <v>0.979</v>
       </c>
       <c r="E22" t="n">
         <v>0.429</v>
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.406</v>
+        <v>1.182</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D23" t="n">
-        <v>0.977</v>
+        <v>0.98</v>
       </c>
       <c r="E23" t="n">
         <v>0.857</v>
@@ -1095,25 +1095,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.646</v>
+        <v>1.437</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D24" t="n">
-        <v>0.989</v>
+        <v>0.985</v>
       </c>
       <c r="E24" t="n">
-        <v>0.571</v>
+        <v>0.429</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rafiqo Rapitasari</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
@@ -1124,16 +1124,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.667</v>
+        <v>1.381</v>
       </c>
       <c r="C25" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D25" t="n">
-        <v>0.992</v>
+        <v>0.99</v>
       </c>
       <c r="E25" t="n">
-        <v>0.286</v>
+        <v>0.429</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1153,25 +1153,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.412</v>
+        <v>1.167</v>
       </c>
       <c r="C26" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D26" t="n">
         <v>0.92</v>
       </c>
       <c r="E26" t="n">
-        <v>0.714</v>
+        <v>0.429</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rafiqo Rapitasari</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
@@ -1182,16 +1182,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.63</v>
+        <v>1.373</v>
       </c>
       <c r="C27" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D27" t="n">
         <v>0.991</v>
       </c>
       <c r="E27" t="n">
-        <v>0.714</v>
+        <v>0.571</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.677</v>
+        <v>1.418</v>
       </c>
       <c r="C28" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D28" t="n">
-        <v>0.991</v>
+        <v>0.987</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0.857</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.033</v>
+        <v>0.886</v>
       </c>
       <c r="C29" t="n">
         <v>0.003</v>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.727</v>
+        <v>1.547</v>
       </c>
       <c r="C30" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D30" t="n">
-        <v>0.987</v>
+        <v>0.986</v>
       </c>
       <c r="E30" t="n">
-        <v>0.857</v>
+        <v>1</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1298,20 +1298,20 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.674</v>
       </c>
       <c r="C31" t="n">
         <v>0.002</v>
       </c>
       <c r="D31" t="n">
-        <v>0.985</v>
+        <v>0.99</v>
       </c>
       <c r="E31" t="n">
-        <v>0.286</v>
+        <v>0.571</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Muhammad Iqbal Baqi</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.987</v>
+        <v>0.72</v>
       </c>
       <c r="C32" t="n">
         <v>0.002</v>
       </c>
       <c r="D32" t="n">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="E32" t="n">
         <v>0.429</v>
@@ -1356,13 +1356,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.146</v>
+        <v>1.148</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.979</v>
       </c>
       <c r="E33" t="n">
         <v>0.429</v>
@@ -1385,25 +1385,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.095</v>
+        <v>1.63</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="D34" t="n">
-        <v>0.969</v>
+        <v>0.986</v>
       </c>
       <c r="E34" t="n">
-        <v>0.571</v>
+        <v>0.286</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
@@ -1414,103 +1414,103 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.685</v>
+        <v>1.456</v>
       </c>
       <c r="C35" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D35" t="n">
-        <v>0.994</v>
+        <v>0.992</v>
       </c>
       <c r="E35" t="n">
-        <v>0.857</v>
+        <v>0.429</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TO_1.png</t>
+          <t>FY_4.png</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.291</v>
+        <v>1.251</v>
       </c>
       <c r="C36" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D36" t="n">
         <v>0.99</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0.429</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tiara Oktavian</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TO_2.png</t>
+          <t>TO_1.png</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.004</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>0.003</v>
       </c>
       <c r="D37" t="n">
-        <v>0.992</v>
+        <v>0.978</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0.286</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tiara Oktavian</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TO_3.png</t>
+          <t>TO_2.png</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.217</v>
+        <v>1.072</v>
       </c>
       <c r="C38" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D38" t="n">
-        <v>0.995</v>
+        <v>0.988</v>
       </c>
       <c r="E38" t="n">
-        <v>0.571</v>
+        <v>0.857</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1526,82 +1526,82 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TO_4.png</t>
+          <t>TO_3.png</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.371</v>
+        <v>0.836</v>
       </c>
       <c r="C39" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="D39" t="n">
-        <v>0.979</v>
+        <v>0.992</v>
       </c>
       <c r="E39" t="n">
-        <v>0.429</v>
+        <v>0.714</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Tiara Oktavian</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TO_5.png</t>
+          <t>TO_4.png</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.288</v>
+        <v>3.738</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003</v>
+        <v>0.012</v>
       </c>
       <c r="D40" t="n">
-        <v>0.992</v>
+        <v>0.857</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0.429</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tiara Oktavian</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TD_1.png</t>
+          <t>TO_5.png</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.042</v>
+        <v>3.231</v>
       </c>
       <c r="C41" t="n">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="D41" t="n">
-        <v>0.87</v>
+        <v>0.849</v>
       </c>
       <c r="E41" t="n">
         <v>0.571</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Muhammad Iqbal Baqi</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1613,46 +1613,46 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TD_2.png</t>
+          <t>TD_1.png</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.451</v>
+        <v>2.381</v>
       </c>
       <c r="C42" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="D42" t="n">
-        <v>0.869</v>
+        <v>0.868</v>
       </c>
       <c r="E42" t="n">
-        <v>0.429</v>
+        <v>0.857</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Muhammad Iqbal Baqi</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TD_3.png</t>
+          <t>TD_2.png</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.413</v>
+        <v>2.561</v>
       </c>
       <c r="C43" t="n">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
       <c r="D43" t="n">
-        <v>0.971</v>
+        <v>0.869</v>
       </c>
       <c r="E43" t="n">
         <v>0.429</v>
@@ -1671,27 +1671,56 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>TD_3.png</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.051</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Benar</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>TD_4.png</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>1.182</v>
-      </c>
-      <c r="C44" t="n">
+      <c r="B45" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="C45" t="n">
         <v>0.003</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D45" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="E45" t="n">
         <v>0.286</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Benar</t>
         </is>
